--- a/Данные/Кэшбэк от Ростуризма.xlsx
+++ b/Данные/Кэшбэк от Ростуризма.xlsx
@@ -87,9 +87,6 @@
     <t>Ненецкий автономный округ</t>
   </si>
   <si>
-    <t>Архангельская область (кроме Ненецкого автономного округа)</t>
-  </si>
-  <si>
     <t>Вологодская область</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Ямало-Ненецкий автономный округ</t>
   </si>
   <si>
-    <t>Тюменская область (кроме Ханты-Мансийского автономного округа-Югры и Ямало-Ненецкого автономного округа)</t>
-  </si>
-  <si>
     <t>Челябинская область</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>2023 январь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тюменская область </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архангельская область </t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,13 +654,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1">
         <v>2022</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,9 +905,9 @@
         <v>832</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3">
         <v>517315</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>1112103</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>685570</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>15205197</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>572946</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>1108949</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>1014754</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>8129585</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>132162</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>83456</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3">
         <v>4204981</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3">
         <v>20121753</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
         <v>414919</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>1133280</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
         <v>2128587</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3">
         <v>233787</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
         <v>507927</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3">
         <v>73139</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3">
         <v>347705</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3">
         <v>743617</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3">
         <v>245180</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
         <v>104844</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3">
         <v>1771898</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3">
         <v>1914771</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>332587</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3">
         <v>190577</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3">
         <v>3702523</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3">
         <v>686757</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3">
         <v>537427</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="3">
         <v>1256472</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3">
         <v>723056</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="3">
         <v>2214371</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3">
         <v>695399</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3">
         <v>263601</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3">
         <v>1854295</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3">
         <v>775547</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3">
         <v>409673</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3">
         <v>672289</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3">
         <v>2445219</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="3">
         <v>2571483</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3">
         <v>831998</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="3">
         <v>328175</v>
@@ -1367,9 +1367,9 @@
         <v>22868</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B66" s="3">
         <v>1411310</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3">
         <v>1737877</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3">
         <v>498448</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" s="3">
         <v>72296</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3">
         <v>496112</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" s="3">
         <v>1571744</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" s="3">
         <v>1492467</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3">
         <v>837292</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" s="3">
         <v>1131655</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3">
         <v>1875638</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3">
         <v>705581</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="3">
         <v>419934</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="3">
         <v>673938</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" s="3">
         <v>237467</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="3">
         <v>433914</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" s="3">
         <v>618342</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="3">
         <v>1421914</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="3">
         <v>578821</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" s="3">
         <v>446955</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" s="3">
         <v>54132</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="3">
         <v>302739</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="3">
         <v>35586</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" s="3">
         <v>30068</v>

--- a/Данные/Кэшбэк от Ростуризма.xlsx
+++ b/Данные/Кэшбэк от Ростуризма.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Белгородская область</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Округа</t>
-  </si>
-  <si>
-    <t>2023 январь</t>
   </si>
   <si>
     <t xml:space="preserve">Тюменская область </t>
@@ -641,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,9 +656,6 @@
       <c r="B1" s="1">
         <v>2022</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -670,9 +664,7 @@
       <c r="B2" s="3">
         <v>756835</v>
       </c>
-      <c r="C2" s="3">
-        <v>63539</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -681,9 +673,7 @@
       <c r="B3" s="3">
         <v>484459</v>
       </c>
-      <c r="C3" s="3">
-        <v>33500</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -692,9 +682,7 @@
       <c r="B4" s="3">
         <v>1901040</v>
       </c>
-      <c r="C4" s="3">
-        <v>63442</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -703,9 +691,7 @@
       <c r="B5" s="3">
         <v>1107123</v>
       </c>
-      <c r="C5" s="3">
-        <v>78357</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -714,9 +700,7 @@
       <c r="B6" s="3">
         <v>619795</v>
       </c>
-      <c r="C6" s="3">
-        <v>21454</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -725,9 +709,7 @@
       <c r="B7" s="3">
         <v>612606</v>
       </c>
-      <c r="C7" s="3">
-        <v>55310</v>
-      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -736,9 +718,7 @@
       <c r="B8" s="3">
         <v>410277</v>
       </c>
-      <c r="C8" s="3">
-        <v>21573</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -747,9 +727,7 @@
       <c r="B9" s="3">
         <v>414992</v>
       </c>
-      <c r="C9" s="3">
-        <v>21410</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -758,9 +736,7 @@
       <c r="B10" s="3">
         <v>528756</v>
       </c>
-      <c r="C10" s="3">
-        <v>29806</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -769,9 +745,7 @@
       <c r="B11" s="3">
         <v>15211970</v>
       </c>
-      <c r="C11" s="3">
-        <v>947635</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -780,9 +754,7 @@
       <c r="B12" s="3">
         <v>327268</v>
       </c>
-      <c r="C12" s="3">
-        <v>21050</v>
-      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -791,9 +763,7 @@
       <c r="B13" s="3">
         <v>930967</v>
       </c>
-      <c r="C13" s="3">
-        <v>50519</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -802,9 +772,7 @@
       <c r="B14" s="3">
         <v>368369</v>
       </c>
-      <c r="C14" s="3">
-        <v>34403</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -813,9 +781,7 @@
       <c r="B15" s="3">
         <v>374687</v>
       </c>
-      <c r="C15" s="3">
-        <v>16684</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -824,9 +790,7 @@
       <c r="B16" s="3">
         <v>1482327</v>
       </c>
-      <c r="C16" s="3">
-        <v>65331</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -835,9 +799,7 @@
       <c r="B17" s="3">
         <v>794566</v>
       </c>
-      <c r="C17" s="3">
-        <v>46663</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -846,9 +808,7 @@
       <c r="B18" s="3">
         <v>2081459</v>
       </c>
-      <c r="C18" s="3">
-        <v>75449</v>
-      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -857,9 +817,7 @@
       <c r="B19" s="3">
         <v>14283921</v>
       </c>
-      <c r="C19" s="3">
-        <v>1261908</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -868,9 +826,7 @@
       <c r="B20" s="3">
         <v>617806</v>
       </c>
-      <c r="C20" s="3">
-        <v>49620</v>
-      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -879,9 +835,7 @@
       <c r="B21" s="3">
         <v>435112</v>
       </c>
-      <c r="C21" s="3">
-        <v>23910</v>
-      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -890,9 +844,7 @@
       <c r="B22" s="3">
         <v>534943</v>
       </c>
-      <c r="C22" s="3">
-        <v>70992</v>
-      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -901,20 +853,16 @@
       <c r="B23" s="3">
         <v>17628</v>
       </c>
-      <c r="C23" s="3">
-        <v>832</v>
-      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3">
         <v>517315</v>
       </c>
-      <c r="C24" s="3">
-        <v>70160</v>
-      </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -923,9 +871,7 @@
       <c r="B25" s="3">
         <v>1112103</v>
       </c>
-      <c r="C25" s="3">
-        <v>100015</v>
-      </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -934,9 +880,7 @@
       <c r="B26" s="3">
         <v>685570</v>
       </c>
-      <c r="C26" s="3">
-        <v>35342</v>
-      </c>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -945,9 +889,7 @@
       <c r="B27" s="3">
         <v>15205197</v>
       </c>
-      <c r="C27" s="3">
-        <v>720977</v>
-      </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -956,9 +898,7 @@
       <c r="B28" s="3">
         <v>572946</v>
       </c>
-      <c r="C28" s="3">
-        <v>60189</v>
-      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -967,9 +907,7 @@
       <c r="B29" s="3">
         <v>1108949</v>
       </c>
-      <c r="C29" s="3">
-        <v>56831</v>
-      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -978,9 +916,7 @@
       <c r="B30" s="3">
         <v>1014754</v>
       </c>
-      <c r="C30" s="3">
-        <v>41478</v>
-      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -989,9 +925,7 @@
       <c r="B31" s="3">
         <v>8129585</v>
       </c>
-      <c r="C31" s="3">
-        <v>679952</v>
-      </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1000,9 +934,7 @@
       <c r="B32" s="3">
         <v>132162</v>
       </c>
-      <c r="C32" s="3">
-        <v>8630</v>
-      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1011,9 +943,7 @@
       <c r="B33" s="3">
         <v>83456</v>
       </c>
-      <c r="C33" s="3">
-        <v>8076</v>
-      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1022,9 +952,7 @@
       <c r="B34" s="3">
         <v>4204981</v>
       </c>
-      <c r="C34" s="3">
-        <v>134741</v>
-      </c>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1033,9 +961,7 @@
       <c r="B35" s="3">
         <v>20121753</v>
       </c>
-      <c r="C35" s="3">
-        <v>719121</v>
-      </c>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1044,9 +970,7 @@
       <c r="B36" s="3">
         <v>414919</v>
       </c>
-      <c r="C36" s="3">
-        <v>19316</v>
-      </c>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1055,9 +979,7 @@
       <c r="B37" s="3">
         <v>1133280</v>
       </c>
-      <c r="C37" s="3">
-        <v>36815</v>
-      </c>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1066,9 +988,7 @@
       <c r="B38" s="3">
         <v>2128587</v>
       </c>
-      <c r="C38" s="3">
-        <v>106603</v>
-      </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1077,9 +997,7 @@
       <c r="B39" s="3">
         <v>233787</v>
       </c>
-      <c r="C39" s="3">
-        <v>26420</v>
-      </c>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -1088,9 +1006,7 @@
       <c r="B40" s="3">
         <v>507927</v>
       </c>
-      <c r="C40" s="3">
-        <v>6826</v>
-      </c>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1099,9 +1015,7 @@
       <c r="B41" s="3">
         <v>73139</v>
       </c>
-      <c r="C41" s="3">
-        <v>2819</v>
-      </c>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -1110,9 +1024,7 @@
       <c r="B42" s="3">
         <v>347705</v>
       </c>
-      <c r="C42" s="3">
-        <v>22466</v>
-      </c>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1121,9 +1033,7 @@
       <c r="B43" s="3">
         <v>743617</v>
       </c>
-      <c r="C43" s="3">
-        <v>19251</v>
-      </c>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1132,9 +1042,7 @@
       <c r="B44" s="3">
         <v>245180</v>
       </c>
-      <c r="C44" s="3">
-        <v>11695</v>
-      </c>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1143,9 +1051,7 @@
       <c r="B45" s="3">
         <v>104844</v>
       </c>
-      <c r="C45" s="3">
-        <v>5959</v>
-      </c>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1154,9 +1060,7 @@
       <c r="B46" s="3">
         <v>1771898</v>
       </c>
-      <c r="C46" s="3">
-        <v>130792</v>
-      </c>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -1165,9 +1069,7 @@
       <c r="B47" s="3">
         <v>1914771</v>
       </c>
-      <c r="C47" s="3">
-        <v>125714</v>
-      </c>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1176,9 +1078,7 @@
       <c r="B48" s="3">
         <v>332587</v>
       </c>
-      <c r="C48" s="3">
-        <v>27804</v>
-      </c>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -1187,9 +1087,7 @@
       <c r="B49" s="3">
         <v>190577</v>
       </c>
-      <c r="C49" s="3">
-        <v>20605</v>
-      </c>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -1198,9 +1096,7 @@
       <c r="B50" s="3">
         <v>3702523</v>
       </c>
-      <c r="C50" s="3">
-        <v>264511</v>
-      </c>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -1209,9 +1105,7 @@
       <c r="B51" s="3">
         <v>686757</v>
       </c>
-      <c r="C51" s="3">
-        <v>42901</v>
-      </c>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1220,9 +1114,7 @@
       <c r="B52" s="3">
         <v>537427</v>
       </c>
-      <c r="C52" s="3">
-        <v>46252</v>
-      </c>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1231,9 +1123,7 @@
       <c r="B53" s="3">
         <v>1256472</v>
       </c>
-      <c r="C53" s="3">
-        <v>74748</v>
-      </c>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1242,9 +1132,7 @@
       <c r="B54" s="3">
         <v>723056</v>
       </c>
-      <c r="C54" s="3">
-        <v>60058</v>
-      </c>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1253,9 +1141,7 @@
       <c r="B55" s="3">
         <v>2214371</v>
       </c>
-      <c r="C55" s="3">
-        <v>159926</v>
-      </c>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -1264,9 +1150,7 @@
       <c r="B56" s="3">
         <v>695399</v>
       </c>
-      <c r="C56" s="3">
-        <v>26669</v>
-      </c>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -1275,9 +1159,7 @@
       <c r="B57" s="3">
         <v>263601</v>
       </c>
-      <c r="C57" s="3">
-        <v>25683</v>
-      </c>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -1286,9 +1168,7 @@
       <c r="B58" s="3">
         <v>1854295</v>
       </c>
-      <c r="C58" s="3">
-        <v>78310</v>
-      </c>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -1297,9 +1177,7 @@
       <c r="B59" s="3">
         <v>775547</v>
       </c>
-      <c r="C59" s="3">
-        <v>49380</v>
-      </c>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -1308,9 +1186,7 @@
       <c r="B60" s="3">
         <v>409673</v>
       </c>
-      <c r="C60" s="3">
-        <v>32511</v>
-      </c>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -1319,9 +1195,7 @@
       <c r="B61" s="3">
         <v>672289</v>
       </c>
-      <c r="C61" s="3">
-        <v>47233</v>
-      </c>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -1330,9 +1204,7 @@
       <c r="B62" s="3">
         <v>2445219</v>
       </c>
-      <c r="C62" s="3">
-        <v>258741</v>
-      </c>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1341,9 +1213,7 @@
       <c r="B63" s="3">
         <v>2571483</v>
       </c>
-      <c r="C63" s="3">
-        <v>189959</v>
-      </c>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -1352,9 +1222,7 @@
       <c r="B64" s="3">
         <v>831998</v>
       </c>
-      <c r="C64" s="3">
-        <v>64024</v>
-      </c>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -1363,20 +1231,16 @@
       <c r="B65" s="3">
         <v>328175</v>
       </c>
-      <c r="C65" s="3">
-        <v>22868</v>
-      </c>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="3">
         <v>1411310</v>
       </c>
-      <c r="C66" s="3">
-        <v>103067</v>
-      </c>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -1385,9 +1249,7 @@
       <c r="B67" s="3">
         <v>1737877</v>
       </c>
-      <c r="C67" s="3">
-        <v>110610</v>
-      </c>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -1396,9 +1258,7 @@
       <c r="B68" s="3">
         <v>498448</v>
       </c>
-      <c r="C68" s="3">
-        <v>10324</v>
-      </c>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -1407,9 +1267,7 @@
       <c r="B69" s="3">
         <v>72296</v>
       </c>
-      <c r="C69" s="3">
-        <v>1787</v>
-      </c>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -1418,9 +1276,7 @@
       <c r="B70" s="3">
         <v>496112</v>
       </c>
-      <c r="C70" s="3">
-        <v>23364</v>
-      </c>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -1429,9 +1285,7 @@
       <c r="B71" s="3">
         <v>1571744</v>
       </c>
-      <c r="C71" s="3">
-        <v>122274</v>
-      </c>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -1440,9 +1294,7 @@
       <c r="B72" s="3">
         <v>1492467</v>
       </c>
-      <c r="C72" s="3">
-        <v>120544</v>
-      </c>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -1451,9 +1303,7 @@
       <c r="B73" s="3">
         <v>837292</v>
       </c>
-      <c r="C73" s="3">
-        <v>99094</v>
-      </c>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -1462,9 +1312,7 @@
       <c r="B74" s="3">
         <v>1131655</v>
       </c>
-      <c r="C74" s="3">
-        <v>115583</v>
-      </c>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -1473,9 +1321,7 @@
       <c r="B75" s="3">
         <v>1875638</v>
       </c>
-      <c r="C75" s="3">
-        <v>101603</v>
-      </c>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -1484,9 +1330,7 @@
       <c r="B76" s="3">
         <v>705581</v>
       </c>
-      <c r="C76" s="3">
-        <v>57448</v>
-      </c>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -1495,9 +1339,7 @@
       <c r="B77" s="3">
         <v>419934</v>
       </c>
-      <c r="C77" s="3">
-        <v>22215</v>
-      </c>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -1506,9 +1348,7 @@
       <c r="B78" s="3">
         <v>673938</v>
       </c>
-      <c r="C78" s="3">
-        <v>43448</v>
-      </c>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -1517,9 +1357,7 @@
       <c r="B79" s="3">
         <v>237467</v>
       </c>
-      <c r="C79" s="3">
-        <v>11630</v>
-      </c>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -1528,9 +1366,7 @@
       <c r="B80" s="3">
         <v>433914</v>
       </c>
-      <c r="C80" s="3">
-        <v>16174</v>
-      </c>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -1539,9 +1375,7 @@
       <c r="B81" s="3">
         <v>618342</v>
       </c>
-      <c r="C81" s="3">
-        <v>14461</v>
-      </c>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -1550,9 +1384,7 @@
       <c r="B82" s="3">
         <v>1421914</v>
       </c>
-      <c r="C82" s="3">
-        <v>94391</v>
-      </c>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -1561,9 +1393,7 @@
       <c r="B83" s="3">
         <v>578821</v>
       </c>
-      <c r="C83" s="3">
-        <v>30446</v>
-      </c>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -1572,9 +1402,7 @@
       <c r="B84" s="3">
         <v>446955</v>
       </c>
-      <c r="C84" s="3">
-        <v>17971</v>
-      </c>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -1583,9 +1411,7 @@
       <c r="B85" s="3">
         <v>54132</v>
       </c>
-      <c r="C85" s="3">
-        <v>5898</v>
-      </c>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -1594,9 +1420,7 @@
       <c r="B86" s="3">
         <v>302739</v>
       </c>
-      <c r="C86" s="3">
-        <v>53702</v>
-      </c>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -1605,9 +1429,7 @@
       <c r="B87" s="3">
         <v>35586</v>
       </c>
-      <c r="C87" s="3">
-        <v>1866</v>
-      </c>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -1616,9 +1438,7 @@
       <c r="B88" s="3">
         <v>30068</v>
       </c>
-      <c r="C88" s="3">
-        <v>3792</v>
-      </c>
+      <c r="C88" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
